--- a/01_MergeExcel/workBook.xlsx
+++ b/01_MergeExcel/workBook.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -703,216 +703,6 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>workBook1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>唐三藏</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>workBook2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>孙悟空</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>workBook2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>猪八戒</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>workBook2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>沙僧</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>workBook2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>白龙马</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>workBook2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>唐三藏</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>workBook3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>孙悟空</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>workBook3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>猪八戒</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>workBook3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>沙僧</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>workBook3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>白龙马</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>workBook3</t>
         </is>
       </c>
     </row>
